--- a/data/trans_bre/CONS_ANS-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANS-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,65</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>134,08%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>-30,6%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>167,31%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>37,11%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-10,68%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,91</t>
+          <t>-1,57; 2,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,38</t>
+          <t>-4,09; 1,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 1,73</t>
+          <t>1,56; 7,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,14</t>
+          <t>-1,08; 4,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,12; 346,26</t>
+          <t>-35,08; 89,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 133,2</t>
+          <t>-65,44; 37,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,6; 70,37</t>
+          <t>34,36; 425,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 77,89</t>
+          <t>-19,91; 134,07</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,65</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>47,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-10,41%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>31,1%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>90,97%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>25,1%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 3,03</t>
+          <t>-2,7; 2,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 7,37</t>
+          <t>-1,3; 5,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,71</t>
+          <t>-3,9; 2,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,42</t>
+          <t>-2,11; 7,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 74,94</t>
+          <t>-42,35; 88,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 127,36</t>
+          <t>-29,52; 191,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 272,0</t>
+          <t>-51,88; 68,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 124,9</t>
+          <t>-20,94; 121,64</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,98</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>11,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,06</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,89</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>161,13%</t>
+          <t>115,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>166,98%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>209,8%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>114,93%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>88,23%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>98,3%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 12,69</t>
+          <t>2,11; 8,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 22,77</t>
+          <t>0,49; 13,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 10,25</t>
+          <t>2,89; 14,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,04</t>
+          <t>0,26; 21,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,61; 450,51</t>
+          <t>36,22; 247,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 319,32</t>
+          <t>1,14; 999,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,06; 235,86</t>
+          <t>49,74; 583,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,24; 218,64</t>
+          <t>-13,95; 305,23</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>114,86%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>115,14%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 4,23</t>
+          <t>-0,67; 4,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 16,61</t>
+          <t>-4,23; 3,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,47</t>
+          <t>-1,2; 4,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,68</t>
+          <t>2,59; 15,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 90,38</t>
+          <t>-7,96; 78,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,73; 284,66</t>
+          <t>-62,68; 88,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 118,02</t>
+          <t>-21,24; 110,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 79,22</t>
+          <t>24,63; 261,74</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>14,28</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,66</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>184,58%</t>
+          <t>75,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>133,19%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>200,74%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>480,38%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>87,66%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>73,68%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 11,4</t>
+          <t>0,47; 7,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 22,33</t>
+          <t>0,9; 11,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 8,94</t>
+          <t>2,64; 12,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,49</t>
+          <t>7,22; 22,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,57; 464,95</t>
+          <t>4,85; 194,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,69; 2118,5</t>
+          <t>9,45; 423,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,39; 175,67</t>
+          <t>37,78; 536,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,7; 175,89</t>
+          <t>60,32; 2058,75</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>1461,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>342,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>305,4%</t>
+          <t>197,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>396,36%</t>
+          <t>41,06%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 21,75</t>
+          <t>6,42; 11,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 12,54</t>
+          <t>4,05; 11,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,25</t>
+          <t>-7,36; 35,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,82</t>
+          <t>-9,8; 12,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>234,01; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>47,69; 1539,26</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-68,96; 314,25</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>79,88; 1099,49</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>120,19; 1043,21</t>
+          <t>-63,27; 328,58</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>59,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>83,48%</t>
+          <t>75,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>78,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>83,16%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,43</t>
+          <t>1,57; 3,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,14</t>
+          <t>0,85; 5,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,2</t>
+          <t>1,77; 4,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,81</t>
+          <t>3,5; 8,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,7; 107,02</t>
+          <t>29,37; 93,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,11; 131,04</t>
+          <t>19,18; 156,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>55,73; 132,75</t>
+          <t>36,95; 135,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,29; 94,07</t>
+          <t>40,92; 139,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANS-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANS-Clase-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,26</t>
+          <t>-1,35; 2,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 1,1</t>
+          <t>-4,53; 1,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,25</t>
+          <t>-1,11; 4,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 89,02</t>
+          <t>-29,52; 100,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,44; 37,08</t>
+          <t>-67,12; 38,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 134,07</t>
+          <t>-19,02; 131,21</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,68</t>
+          <t>-1,24; 3,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 5,24</t>
+          <t>-1,31; 5,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 7,4</t>
+          <t>-2,18; 6,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 88,99</t>
+          <t>-25,72; 138,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 191,47</t>
+          <t>-26,53; 182,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 121,64</t>
+          <t>-21,64; 109,87</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>115,59%</t>
+          <t>167,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,87</t>
+          <t>3,25; 10,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 13,78</t>
+          <t>0,63; 14,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 21,85</t>
+          <t>1,18; 22,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,22; 247,45</t>
+          <t>67,89; 324,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 999,08</t>
+          <t>1,14; 1114,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 305,23</t>
+          <t>-1,56; 312,71</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 4,47</t>
+          <t>-0,97; 4,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 3,98</t>
+          <t>-4,53; 3,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 15,58</t>
+          <t>3,79; 16,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 78,29</t>
+          <t>-12,18; 79,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 88,48</t>
+          <t>-63,31; 81,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,63; 261,74</t>
+          <t>33,3; 271,81</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>75,18%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 7,29</t>
+          <t>1,02; 6,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 11,8</t>
+          <t>-0,0; 11,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 22,76</t>
+          <t>6,96; 22,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 194,94</t>
+          <t>13,38; 181,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,45; 423,53</t>
+          <t>1,06; 375,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,32; 2058,75</t>
+          <t>80,64; 2107,0</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1461,35%</t>
+          <t>761,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,42; 11,74</t>
+          <t>4,58; 9,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,41</t>
+          <t>3,81; 11,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 12,96</t>
+          <t>-10,33; 13,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>234,01; —</t>
+          <t>76,48; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,69; 1539,26</t>
+          <t>40,04; 1554,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,27; 328,58</t>
+          <t>-65,37; 310,48</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,9</t>
+          <t>1,85; 3,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,31</t>
+          <t>1,09; 5,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 8,41</t>
+          <t>3,47; 8,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,37; 93,53</t>
+          <t>38,2; 101,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,18; 156,39</t>
+          <t>28,16; 161,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,92; 139,48</t>
+          <t>42,75; 137,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANS-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANS-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,73</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-19,82%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>37,11%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>167,31%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>21,27%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-30,6%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>167,31%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>37,11%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,69; 1,79</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 4,16</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 7,27</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-1,35; 2,61</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,53; 1,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 7,27</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 4,16</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-60,98; 58,15</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-19,02; 131,21</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34,36; 425,75</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-29,52; 100,51</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-67,12; 38,31</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>34,36; 425,75</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-19,02; 131,21</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,26</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>48,11%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31,1%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-10,41%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>33,95%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>47,92%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-10,41%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>31,1%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,17; 4,92</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 6,9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 2,57</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-1,24; 3,68</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 5,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 2,57</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 6,9</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-25,13; 177,68</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-21,64; 109,87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-51,88; 68,61</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-25,72; 138,08</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-26,53; 182,7</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-51,88; 68,61</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-21,64; 109,87</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11,0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,98</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>6,77</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,22</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,98</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,0</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>48,14%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>114,93%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>209,8%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>167,38%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>166,98%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>209,8%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>114,93%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,17; 9,69</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 22,15</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 14,68</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>3,25; 10,65</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 14,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 14,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 22,15</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-26,27; 191,48</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 312,71</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49,74; 583,38</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>67,89; 324,03</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 1114,51</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>49,74; 583,38</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 312,71</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>1,65</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,04</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>56,67%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>115,14%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>25,83%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,79%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>29,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>115,14%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,64; 6,1</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 16,45</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 4,43</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-0,97; 4,04</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,53; 3,91</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 4,43</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 16,45</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>8,81; 158,05</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33,3; 271,81</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-21,24; 110,52</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-12,18; 79,67</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-63,31; 81,85</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-21,24; 110,52</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>33,3; 271,81</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,28</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>4,29</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,58</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,28</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>170,91%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>480,38%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>200,74%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>86,29%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>133,19%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>200,74%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>480,38%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>3,62; 10,86</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 22,26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 12,79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>1,02; 6,84</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,0; 11,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 12,79</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,96; 22,26</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>43,22; 437,75</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>80,64; 2107,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37,78; 536,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>13,38; 181,61</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 375,08</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>37,78; 536,03</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>80,64; 2107,0</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>7,88</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9,16</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>7,15</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,05</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,16</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,93</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>316,04%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>41,06%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>197,94%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>761,66%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>342,2%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>197,94%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>41,06%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>3,32; 10,78</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-10,33; 13,44</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 35,47</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>4,58; 9,52</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 11,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,36; 35,47</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-10,33; 13,44</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>28,49; 1518,63</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-65,37; 310,48</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>76,48; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>40,04; 1554,03</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-65,37; 310,48</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>2,87</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>79,15%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>83,16%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>78,12%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>67,05%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>75,95%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>78,12%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>83,16%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,48; 5,23</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 8,16</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 4,86</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>1,85; 3,88</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 5,32</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,77; 4,86</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 8,16</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>44,43; 130,19</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42,75; 137,32</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>36,95; 135,99</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>38,2; 101,65</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>28,16; 161,33</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>36,95; 135,99</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>42,75; 137,32</t>
         </is>
       </c>
     </row>
